--- a/public/data/lime/lime_table_zambia.xlsx
+++ b/public/data/lime/lime_table_zambia.xlsx
@@ -1552,16 +1552,16 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="E2" t="n">
-        <v>0.43</v>
+        <v>0.02</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.29</v>
+        <v>0.64</v>
       </c>
       <c r="K2" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>1.11</v>
+        <v>0.54</v>
       </c>
       <c r="E3" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1617,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.84</v>
+        <v>0.28</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1646,34 +1646,34 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>2.99</v>
+        <v>2.68</v>
       </c>
       <c r="E4" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>0.76</v>
       </c>
       <c r="G4" t="n">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="K4" t="n">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="L4" t="n">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
       <c r="M4" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1693,13 +1693,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>2.39</v>
+        <v>1.95</v>
       </c>
       <c r="E5" t="n">
-        <v>1.47</v>
+        <v>0.69</v>
       </c>
       <c r="F5" t="n">
-        <v>0.65</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.69</v>
+        <v>0.17</v>
       </c>
       <c r="L5" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>1.79</v>
+        <v>1.29</v>
       </c>
       <c r="E6" t="n">
-        <v>0.79</v>
+        <v>0.22</v>
       </c>
       <c r="F6" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1758,16 +1758,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.12</v>
+        <v>0.55</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1787,13 +1787,13 @@
         <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="E7" t="n">
-        <v>1.64</v>
+        <v>0.86</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9</v>
+        <v>0.21</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1805,16 +1805,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.39</v>
+        <v>0.92</v>
       </c>
       <c r="K7" t="n">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
       <c r="L7" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="M7" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1834,13 +1834,13 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>1.99</v>
+        <v>1.66</v>
       </c>
       <c r="E8" t="n">
-        <v>1.28</v>
+        <v>0.82</v>
       </c>
       <c r="F8" t="n">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.17</v>
+        <v>0.65</v>
       </c>
       <c r="K8" t="n">
-        <v>0.26</v>
+        <v>0.07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>2.82</v>
+        <v>2.54</v>
       </c>
       <c r="E9" t="n">
-        <v>2.22</v>
+        <v>1.64</v>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>0.82</v>
       </c>
       <c r="G9" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1899,16 +1899,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="L9" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="M9" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1928,16 +1928,16 @@
         <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
       <c r="E10" t="n">
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
       <c r="F10" t="n">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1946,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>1.18</v>
       </c>
       <c r="K10" t="n">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
       <c r="L10" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1975,37 +1975,37 @@
         <v>97</v>
       </c>
       <c r="D11" t="n">
-        <v>3.55</v>
+        <v>3.17</v>
       </c>
       <c r="E11" t="n">
-        <v>2.77</v>
+        <v>1.97</v>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>0.79</v>
       </c>
       <c r="G11" t="n">
-        <v>5.18</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.49</v>
+        <v>1.82</v>
       </c>
       <c r="K11" t="n">
-        <v>1.45</v>
+        <v>0.63</v>
       </c>
       <c r="L11" t="n">
-        <v>0.63</v>
+        <v>0.11</v>
       </c>
       <c r="M11" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2022,16 +2022,16 @@
         <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>2.21</v>
+        <v>1.94</v>
       </c>
       <c r="E12" t="n">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="F12" t="n">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2040,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="n">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
       <c r="L12" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="M12" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.15</v>
+        <v>0.36</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2116,16 +2116,16 @@
         <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>0.97</v>
+        <v>0.44</v>
       </c>
       <c r="E14" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2181,16 +2181,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.25</v>
+        <v>0.26</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2228,16 +2228,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.84</v>
+        <v>0.22</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2275,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>0.41</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.82</v>
+        <v>0.15</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>106</v>
       </c>
       <c r="D19" t="n">
-        <v>1.46</v>
+        <v>0.32</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.95</v>
+        <v>0.59</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>107</v>
       </c>
       <c r="D20" t="n">
-        <v>0.62</v>
+        <v>0.11</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2416,16 +2416,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.22</v>
+        <v>0.28</v>
       </c>
       <c r="K20" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2463,16 +2463,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.48</v>
+        <v>0.56</v>
       </c>
       <c r="K21" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>109</v>
       </c>
       <c r="D22" t="n">
-        <v>0.73</v>
+        <v>0.28</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2510,16 +2510,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.79</v>
+        <v>0.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.04</v>
+        <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2604,16 +2604,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>0.35</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.99</v>
+        <v>0.32</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2698,16 +2698,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="K26" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2745,16 +2745,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.56</v>
+        <v>0.18</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2792,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="K29" t="n">
-        <v>0.19</v>
+        <v>0.07</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2886,16 +2886,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.03</v>
+        <v>0.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2933,16 +2933,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.76</v>
+        <v>0.42</v>
       </c>
       <c r="K31" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2980,16 +2980,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.73</v>
+        <v>0.31</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.55</v>
+        <v>0.29</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.19</v>
+        <v>0.47</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3121,16 +3121,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.37</v>
+        <v>0.53</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3168,16 +3168,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.19</v>
+        <v>0.51</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3215,16 +3215,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3262,16 +3262,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="K38" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3291,16 +3291,16 @@
         <v>128</v>
       </c>
       <c r="D39" t="n">
-        <v>2.99</v>
+        <v>2.67</v>
       </c>
       <c r="E39" t="n">
-        <v>2.25</v>
+        <v>1.68</v>
       </c>
       <c r="F39" t="n">
-        <v>1.53</v>
+        <v>0.98</v>
       </c>
       <c r="G39" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3309,19 +3309,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.42</v>
+        <v>1.15</v>
       </c>
       <c r="K39" t="n">
-        <v>1.01</v>
+        <v>0.16</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3338,16 +3338,16 @@
         <v>129</v>
       </c>
       <c r="D40" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="E40" t="n">
-        <v>2.54</v>
+        <v>2.01</v>
       </c>
       <c r="F40" t="n">
-        <v>1.88</v>
+        <v>1.18</v>
       </c>
       <c r="G40" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.57</v>
+        <v>0.98</v>
       </c>
       <c r="K40" t="n">
-        <v>0.59</v>
+        <v>0.21</v>
       </c>
       <c r="L40" t="n">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="M40" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3385,16 +3385,16 @@
         <v>130</v>
       </c>
       <c r="D41" t="n">
-        <v>2.59</v>
+        <v>2.36</v>
       </c>
       <c r="E41" t="n">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.73</v>
+        <v>1.09</v>
       </c>
       <c r="G41" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3403,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="K41" t="n">
-        <v>1.21</v>
+        <v>0.65</v>
       </c>
       <c r="L41" t="n">
-        <v>0.68</v>
+        <v>0.16</v>
       </c>
       <c r="M41" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>131</v>
       </c>
       <c r="D42" t="n">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="E42" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="F42" t="n">
-        <v>1.87</v>
+        <v>1.19</v>
       </c>
       <c r="G42" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3450,16 +3450,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="K42" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="L42" t="n">
-        <v>0.73</v>
+        <v>0.29</v>
       </c>
       <c r="M42" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3479,16 +3479,16 @@
         <v>132</v>
       </c>
       <c r="D43" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="E43" t="n">
-        <v>1.26</v>
+        <v>0.7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="G43" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3497,19 +3497,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.81</v>
+        <v>1.22</v>
       </c>
       <c r="K43" t="n">
-        <v>0.92</v>
+        <v>0.25</v>
       </c>
       <c r="L43" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="M43" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3526,13 +3526,13 @@
         <v>133</v>
       </c>
       <c r="D44" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="E44" t="n">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3544,19 +3544,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="K44" t="n">
-        <v>1.11</v>
+        <v>0.47</v>
       </c>
       <c r="L44" t="n">
-        <v>0.46</v>
+        <v>0.07</v>
       </c>
       <c r="M44" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3573,16 +3573,16 @@
         <v>134</v>
       </c>
       <c r="D45" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="E45" t="n">
-        <v>1.57</v>
+        <v>1.08</v>
       </c>
       <c r="F45" t="n">
-        <v>0.94</v>
+        <v>0.42</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.17</v>
+        <v>0.89</v>
       </c>
       <c r="K45" t="n">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="L45" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="M45" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -3620,13 +3620,13 @@
         <v>135</v>
       </c>
       <c r="D46" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="E46" t="n">
-        <v>3.03</v>
+        <v>2.49</v>
       </c>
       <c r="F46" t="n">
-        <v>2.44</v>
+        <v>1.57</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.53</v>
+        <v>2.24</v>
       </c>
       <c r="K46" t="n">
-        <v>1.96</v>
+        <v>1.36</v>
       </c>
       <c r="L46" t="n">
-        <v>1.31</v>
+        <v>0.5</v>
       </c>
       <c r="M46" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3667,13 +3667,13 @@
         <v>136</v>
       </c>
       <c r="D47" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="E47" t="n">
-        <v>2.59</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3685,16 +3685,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="K47" t="n">
-        <v>1.22</v>
+        <v>0.58</v>
       </c>
       <c r="L47" t="n">
-        <v>0.51</v>
+        <v>0.11</v>
       </c>
       <c r="M47" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>137</v>
       </c>
       <c r="D48" t="n">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="E48" t="n">
-        <v>1.16</v>
+        <v>0.74</v>
       </c>
       <c r="F48" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="G48" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3732,16 +3732,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="K48" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="L48" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="M48" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3761,13 +3761,13 @@
         <v>138</v>
       </c>
       <c r="D49" t="n">
-        <v>3.46</v>
+        <v>3.16</v>
       </c>
       <c r="E49" t="n">
-        <v>2.78</v>
+        <v>2.15</v>
       </c>
       <c r="F49" t="n">
-        <v>2.01</v>
+        <v>1.14</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3779,16 +3779,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.94</v>
+        <v>1.38</v>
       </c>
       <c r="K49" t="n">
-        <v>0.92</v>
+        <v>0.34</v>
       </c>
       <c r="L49" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3808,16 +3808,16 @@
         <v>139</v>
       </c>
       <c r="D50" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="E50" t="n">
-        <v>1.09</v>
+        <v>0.67</v>
       </c>
       <c r="F50" t="n">
-        <v>0.58</v>
+        <v>0.18</v>
       </c>
       <c r="G50" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3826,16 +3826,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="K50" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="L50" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="M50" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3855,13 +3855,13 @@
         <v>141</v>
       </c>
       <c r="D51" t="n">
-        <v>3.64</v>
+        <v>3.23</v>
       </c>
       <c r="E51" t="n">
-        <v>3.14</v>
+        <v>2.27</v>
       </c>
       <c r="F51" t="n">
-        <v>2.56</v>
+        <v>1.14</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.26</v>
+        <v>1.09</v>
       </c>
       <c r="K51" t="n">
-        <v>0.68</v>
+        <v>0.1</v>
       </c>
       <c r="L51" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="M51" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3902,13 +3902,13 @@
         <v>142</v>
       </c>
       <c r="D52" t="n">
-        <v>3.42</v>
+        <v>3.03</v>
       </c>
       <c r="E52" t="n">
-        <v>2.62</v>
+        <v>1.78</v>
       </c>
       <c r="F52" t="n">
-        <v>1.7</v>
+        <v>0.56</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -3920,16 +3920,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="K52" t="n">
-        <v>1.33</v>
+        <v>0.55</v>
       </c>
       <c r="L52" t="n">
-        <v>0.63</v>
+        <v>0.09</v>
       </c>
       <c r="M52" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3967,16 +3967,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.37</v>
+        <v>1.44</v>
       </c>
       <c r="K53" t="n">
-        <v>1.16</v>
+        <v>0.23</v>
       </c>
       <c r="L53" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="M53" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3996,13 +3996,13 @@
         <v>144</v>
       </c>
       <c r="D54" t="n">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="E54" t="n">
-        <v>1.26</v>
+        <v>0.37</v>
       </c>
       <c r="F54" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -4014,16 +4014,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.53</v>
+        <v>0.95</v>
       </c>
       <c r="K54" t="n">
-        <v>0.51</v>
+        <v>0.09</v>
       </c>
       <c r="L54" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -4043,13 +4043,13 @@
         <v>145</v>
       </c>
       <c r="D55" t="n">
-        <v>4.48</v>
+        <v>4.05</v>
       </c>
       <c r="E55" t="n">
-        <v>3.72</v>
+        <v>2.79</v>
       </c>
       <c r="F55" t="n">
-        <v>2.83</v>
+        <v>1.33</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.62</v>
+        <v>1.93</v>
       </c>
       <c r="K55" t="n">
-        <v>1.76</v>
+        <v>0.81</v>
       </c>
       <c r="L55" t="n">
-        <v>1.09</v>
+        <v>0.23</v>
       </c>
       <c r="M55" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -4108,16 +4108,16 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.98</v>
+        <v>0.63</v>
       </c>
       <c r="K56" t="n">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="L56" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>147</v>
       </c>
       <c r="D57" t="n">
-        <v>2.79</v>
+        <v>2.33</v>
       </c>
       <c r="E57" t="n">
-        <v>2.06</v>
+        <v>1.06</v>
       </c>
       <c r="F57" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -4155,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.03</v>
+        <v>1.22</v>
       </c>
       <c r="K57" t="n">
-        <v>0.93</v>
+        <v>0.14</v>
       </c>
       <c r="L57" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -4202,16 +4202,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>0.42</v>
       </c>
       <c r="K58" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -4231,10 +4231,10 @@
         <v>149</v>
       </c>
       <c r="D59" t="n">
-        <v>1.62</v>
+        <v>0.94</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -4249,16 +4249,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.11</v>
+        <v>0.5</v>
       </c>
       <c r="K59" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4296,16 +4296,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.64</v>
+        <v>0.94</v>
       </c>
       <c r="K60" t="n">
-        <v>0.64</v>
+        <v>0.18</v>
       </c>
       <c r="L60" t="n">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="M60" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4325,13 +4325,13 @@
         <v>151</v>
       </c>
       <c r="D61" t="n">
-        <v>2.51</v>
+        <v>1.99</v>
       </c>
       <c r="E61" t="n">
-        <v>1.46</v>
+        <v>0.53</v>
       </c>
       <c r="F61" t="n">
-        <v>0.47</v>
+        <v>0.01</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -4343,16 +4343,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
       <c r="K61" t="n">
-        <v>0.59</v>
+        <v>0.09</v>
       </c>
       <c r="L61" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4372,13 +4372,13 @@
         <v>152</v>
       </c>
       <c r="D62" t="n">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="E62" t="n">
-        <v>1.4</v>
+        <v>0.01</v>
       </c>
       <c r="F62" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -4390,16 +4390,16 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.56</v>
+        <v>0.82</v>
       </c>
       <c r="K62" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="L62" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4437,16 +4437,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.16</v>
+        <v>0.52</v>
       </c>
       <c r="K63" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4484,16 +4484,16 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.42</v>
+        <v>0.65</v>
       </c>
       <c r="K64" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="L64" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4531,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.49</v>
+        <v>1.07</v>
       </c>
       <c r="K65" t="n">
-        <v>0.63</v>
+        <v>0.08</v>
       </c>
       <c r="L65" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M65" t="n">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -4560,16 +4560,16 @@
         <v>156</v>
       </c>
       <c r="D66" t="n">
-        <v>1.71</v>
+        <v>0.9</v>
       </c>
       <c r="E66" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4578,16 +4578,16 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.3</v>
+        <v>0.66</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="L66" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4607,13 +4607,13 @@
         <v>158</v>
       </c>
       <c r="D67" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="E67" t="n">
-        <v>2.68</v>
+        <v>2.33</v>
       </c>
       <c r="F67" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -4625,16 +4625,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="K67" t="n">
-        <v>2.54</v>
+        <v>1.84</v>
       </c>
       <c r="L67" t="n">
-        <v>1.66</v>
+        <v>0.94</v>
       </c>
       <c r="M67" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4654,13 +4654,13 @@
         <v>159</v>
       </c>
       <c r="D68" t="n">
-        <v>3.21</v>
+        <v>3.04</v>
       </c>
       <c r="E68" t="n">
-        <v>2.57</v>
+        <v>2.21</v>
       </c>
       <c r="F68" t="n">
-        <v>1.84</v>
+        <v>1.31</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -4672,16 +4672,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.8</v>
+        <v>2.36</v>
       </c>
       <c r="K68" t="n">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
       <c r="L68" t="n">
-        <v>0.89</v>
+        <v>0.29</v>
       </c>
       <c r="M68" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4701,13 +4701,13 @@
         <v>160</v>
       </c>
       <c r="D69" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="E69" t="n">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="F69" t="n">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -4719,16 +4719,16 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="K69" t="n">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
       <c r="L69" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4748,13 +4748,13 @@
         <v>161</v>
       </c>
       <c r="D70" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="E70" t="n">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="F70" t="n">
-        <v>1.22</v>
+        <v>0.62</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -4766,16 +4766,16 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
       <c r="L70" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="M70" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4795,13 +4795,13 @@
         <v>162</v>
       </c>
       <c r="D71" t="n">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="E71" t="n">
-        <v>2.03</v>
+        <v>1.51</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36</v>
+        <v>0.74</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -4813,16 +4813,16 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.99</v>
+        <v>1.66</v>
       </c>
       <c r="K71" t="n">
-        <v>1.17</v>
+        <v>0.7</v>
       </c>
       <c r="L71" t="n">
-        <v>0.52</v>
+        <v>0.19</v>
       </c>
       <c r="M71" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>163</v>
       </c>
       <c r="D72" t="n">
-        <v>3.99</v>
+        <v>3.78</v>
       </c>
       <c r="E72" t="n">
-        <v>3.12</v>
+        <v>2.67</v>
       </c>
       <c r="F72" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -4860,16 +4860,16 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.47</v>
+        <v>2.58</v>
       </c>
       <c r="K72" t="n">
-        <v>1.82</v>
+        <v>0.76</v>
       </c>
       <c r="L72" t="n">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4889,13 +4889,13 @@
         <v>164</v>
       </c>
       <c r="D73" t="n">
-        <v>3.03</v>
+        <v>2.76</v>
       </c>
       <c r="E73" t="n">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="F73" t="n">
-        <v>1.85</v>
+        <v>1.02</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -4907,16 +4907,16 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="K73" t="n">
-        <v>1.22</v>
+        <v>0.67</v>
       </c>
       <c r="L73" t="n">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="M73" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         <v>165</v>
       </c>
       <c r="D74" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="E74" t="n">
-        <v>3.01</v>
+        <v>2.41</v>
       </c>
       <c r="F74" t="n">
-        <v>2.14</v>
+        <v>1.27</v>
       </c>
       <c r="G74" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4954,16 +4954,16 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.92</v>
+        <v>2.23</v>
       </c>
       <c r="K74" t="n">
-        <v>1.78</v>
+        <v>0.91</v>
       </c>
       <c r="L74" t="n">
-        <v>0.88</v>
+        <v>0.26</v>
       </c>
       <c r="M74" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4983,13 +4983,13 @@
         <v>166</v>
       </c>
       <c r="D75" t="n">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
       <c r="E75" t="n">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="F75" t="n">
-        <v>1.1</v>
+        <v>0.53</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5001,16 +5001,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="K75" t="n">
-        <v>1.41</v>
+        <v>0.91</v>
       </c>
       <c r="L75" t="n">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
       <c r="M75" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -5030,13 +5030,13 @@
         <v>167</v>
       </c>
       <c r="D76" t="n">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="E76" t="n">
-        <v>1.81</v>
+        <v>1.25</v>
       </c>
       <c r="F76" t="n">
-        <v>1.15</v>
+        <v>0.43</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -5048,16 +5048,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="K76" t="n">
-        <v>0.81</v>
+        <v>0.33</v>
       </c>
       <c r="L76" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="M76" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5077,16 +5077,16 @@
         <v>169</v>
       </c>
       <c r="D77" t="n">
-        <v>2.89</v>
+        <v>2.66</v>
       </c>
       <c r="E77" t="n">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="F77" t="n">
-        <v>1.59</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5095,16 +5095,16 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.94</v>
+        <v>1.38</v>
       </c>
       <c r="K77" t="n">
-        <v>0.89</v>
+        <v>0.16</v>
       </c>
       <c r="L77" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -5124,16 +5124,16 @@
         <v>170</v>
       </c>
       <c r="D78" t="n">
-        <v>3.52</v>
+        <v>3.27</v>
       </c>
       <c r="E78" t="n">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="F78" t="n">
-        <v>2.26</v>
+        <v>1.46</v>
       </c>
       <c r="G78" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5142,16 +5142,16 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="K78" t="n">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="L78" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="M78" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -5171,16 +5171,16 @@
         <v>171</v>
       </c>
       <c r="D79" t="n">
-        <v>1.26</v>
+        <v>0.92</v>
       </c>
       <c r="E79" t="n">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
       <c r="G79" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5189,19 +5189,19 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.09</v>
+        <v>0.92</v>
       </c>
       <c r="K79" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         <v>172</v>
       </c>
       <c r="D80" t="n">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="E80" t="n">
-        <v>2.53</v>
+        <v>1.9</v>
       </c>
       <c r="F80" t="n">
-        <v>1.89</v>
+        <v>0.97</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="K80" t="n">
-        <v>1.97</v>
+        <v>1.1</v>
       </c>
       <c r="L80" t="n">
-        <v>1.19</v>
+        <v>0.27</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -5265,13 +5265,13 @@
         <v>173</v>
       </c>
       <c r="D81" t="n">
-        <v>3.83</v>
+        <v>3.57</v>
       </c>
       <c r="E81" t="n">
-        <v>3.32</v>
+        <v>2.75</v>
       </c>
       <c r="F81" t="n">
-        <v>2.73</v>
+        <v>1.81</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -5283,16 +5283,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>3.77</v>
+        <v>3.27</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>2.08</v>
       </c>
       <c r="L81" t="n">
-        <v>2.17</v>
+        <v>1.08</v>
       </c>
       <c r="M81" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5312,13 +5312,13 @@
         <v>174</v>
       </c>
       <c r="D82" t="n">
-        <v>5.64</v>
+        <v>1.95</v>
       </c>
       <c r="E82" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -5330,19 +5330,19 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.97</v>
+        <v>0.77</v>
       </c>
       <c r="K82" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -5359,16 +5359,16 @@
         <v>175</v>
       </c>
       <c r="D83" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="E83" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="F83" t="n">
-        <v>0.91</v>
+        <v>0.48</v>
       </c>
       <c r="G83" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5377,16 +5377,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="K83" t="n">
-        <v>0.66</v>
+        <v>0.27</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="M83" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5406,16 +5406,16 @@
         <v>176</v>
       </c>
       <c r="D84" t="n">
-        <v>2.85</v>
+        <v>2.56</v>
       </c>
       <c r="E84" t="n">
-        <v>2.14</v>
+        <v>1.64</v>
       </c>
       <c r="F84" t="n">
-        <v>1.48</v>
+        <v>0.92</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5424,16 +5424,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.48</v>
+        <v>0.86</v>
       </c>
       <c r="K84" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5453,13 +5453,13 @@
         <v>177</v>
       </c>
       <c r="D85" t="n">
-        <v>3.9</v>
+        <v>3.67</v>
       </c>
       <c r="E85" t="n">
-        <v>3.27</v>
+        <v>2.78</v>
       </c>
       <c r="F85" t="n">
-        <v>2.54</v>
+        <v>1.75</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -5471,19 +5471,19 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>3.06</v>
+        <v>1.51</v>
       </c>
       <c r="K85" t="n">
-        <v>1.78</v>
+        <v>0.41</v>
       </c>
       <c r="L85" t="n">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
       <c r="M85" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -5500,13 +5500,13 @@
         <v>178</v>
       </c>
       <c r="D86" t="n">
-        <v>2.93</v>
+        <v>2.66</v>
       </c>
       <c r="E86" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="F86" t="n">
-        <v>1.54</v>
+        <v>0.8</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -5518,19 +5518,19 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.03</v>
+        <v>1.28</v>
       </c>
       <c r="K86" t="n">
-        <v>0.96</v>
+        <v>0.3</v>
       </c>
       <c r="L86" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="M86" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5547,37 +5547,37 @@
         <v>179</v>
       </c>
       <c r="D87" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="E87" t="n">
-        <v>2.94</v>
+        <v>2.43</v>
       </c>
       <c r="F87" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="G87" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.81</v>
+        <v>1.61</v>
       </c>
       <c r="K87" t="n">
-        <v>1.76</v>
+        <v>0.5</v>
       </c>
       <c r="L87" t="n">
-        <v>0.83</v>
+        <v>0.19</v>
       </c>
       <c r="M87" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5594,16 +5594,16 @@
         <v>180</v>
       </c>
       <c r="D88" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0.52</v>
+        <v>0.19</v>
       </c>
       <c r="F88" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5612,19 +5612,19 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>0.77</v>
       </c>
       <c r="K88" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.31</v>
+        <v>0.3</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0.95</v>
+        <v>0.04</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>184</v>
       </c>
       <c r="D91" t="n">
-        <v>0.84</v>
+        <v>0.29</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5753,16 +5753,16 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.94</v>
+        <v>0.36</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5800,16 +5800,16 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.02</v>
+        <v>0.26</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.1</v>
+        <v>0.25</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>181</v>
       </c>
       <c r="D94" t="n">
-        <v>0.97</v>
+        <v>0.57</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9</v>
+        <v>0.49</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -5941,16 +5941,16 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.88</v>
+        <v>0.24</v>
       </c>
       <c r="K95" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5970,10 +5970,10 @@
         <v>188</v>
       </c>
       <c r="D96" t="n">
-        <v>1.47</v>
+        <v>0.77</v>
       </c>
       <c r="E96" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -5988,16 +5988,16 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="K96" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -6017,13 +6017,13 @@
         <v>190</v>
       </c>
       <c r="D97" t="n">
-        <v>2.26</v>
+        <v>2.01</v>
       </c>
       <c r="E97" t="n">
-        <v>1.49</v>
+        <v>0.99</v>
       </c>
       <c r="F97" t="n">
-        <v>0.67</v>
+        <v>0.15</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -6035,16 +6035,16 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="K97" t="n">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
       <c r="L97" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -6064,34 +6064,34 @@
         <v>191</v>
       </c>
       <c r="D98" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="E98" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.07</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.26</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -6129,16 +6129,16 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.34</v>
+        <v>0.78</v>
       </c>
       <c r="K99" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="L99" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -6158,16 +6158,16 @@
         <v>193</v>
       </c>
       <c r="D100" t="n">
-        <v>2.87</v>
+        <v>2.59</v>
       </c>
       <c r="E100" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="F100" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="G100" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6176,19 +6176,19 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="K100" t="n">
-        <v>1.05</v>
+        <v>0.52</v>
       </c>
       <c r="L100" t="n">
-        <v>0.51</v>
+        <v>0.13</v>
       </c>
       <c r="M100" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -6205,13 +6205,13 @@
         <v>194</v>
       </c>
       <c r="D101" t="n">
-        <v>3.22</v>
+        <v>2.96</v>
       </c>
       <c r="E101" t="n">
-        <v>2.61</v>
+        <v>2.05</v>
       </c>
       <c r="F101" t="n">
-        <v>1.92</v>
+        <v>1.09</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -6223,16 +6223,16 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="K101" t="n">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
       <c r="L101" t="n">
-        <v>0.48</v>
+        <v>0.14</v>
       </c>
       <c r="M101" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -6252,16 +6252,16 @@
         <v>195</v>
       </c>
       <c r="D102" t="n">
-        <v>1.36</v>
+        <v>0.99</v>
       </c>
       <c r="E102" t="n">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="F102" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="G102" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6270,16 +6270,16 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.96</v>
+        <v>0.55</v>
       </c>
       <c r="K102" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="L102" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -6299,16 +6299,16 @@
         <v>196</v>
       </c>
       <c r="D103" t="n">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="E103" t="n">
-        <v>1.12</v>
+        <v>0.62</v>
       </c>
       <c r="F103" t="n">
-        <v>0.57</v>
+        <v>0.17</v>
       </c>
       <c r="G103" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6317,16 +6317,16 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.52</v>
+        <v>1.13</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7</v>
+        <v>0.27</v>
       </c>
       <c r="L103" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -6364,16 +6364,16 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.76</v>
+        <v>0.36</v>
       </c>
       <c r="K104" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="L104" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -6393,16 +6393,16 @@
         <v>198</v>
       </c>
       <c r="D105" t="n">
-        <v>2.43</v>
+        <v>2.21</v>
       </c>
       <c r="E105" t="n">
-        <v>2.01</v>
+        <v>1.55</v>
       </c>
       <c r="F105" t="n">
-        <v>1.53</v>
+        <v>0.91</v>
       </c>
       <c r="G105" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6411,16 +6411,16 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="K105" t="n">
-        <v>0.92</v>
+        <v>0.52</v>
       </c>
       <c r="L105" t="n">
-        <v>0.51</v>
+        <v>0.14</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
@@ -6440,13 +6440,13 @@
         <v>200</v>
       </c>
       <c r="D106" t="n">
-        <v>4.48</v>
+        <v>4.07</v>
       </c>
       <c r="E106" t="n">
-        <v>3.91</v>
+        <v>3.03</v>
       </c>
       <c r="F106" t="n">
-        <v>3.24</v>
+        <v>1.81</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -6458,16 +6458,16 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.34</v>
+        <v>1.26</v>
       </c>
       <c r="K106" t="n">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="L106" t="n">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="M106" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -6487,13 +6487,13 @@
         <v>201</v>
       </c>
       <c r="D107" t="n">
-        <v>6.05</v>
+        <v>5.83</v>
       </c>
       <c r="E107" t="n">
-        <v>5.48</v>
+        <v>5.01</v>
       </c>
       <c r="F107" t="n">
-        <v>4.81</v>
+        <v>4.05</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -6505,13 +6505,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>6.04</v>
+        <v>5.84</v>
       </c>
       <c r="K107" t="n">
-        <v>5.52</v>
+        <v>5.08</v>
       </c>
       <c r="L107" t="n">
-        <v>4.91</v>
+        <v>4.2</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -6534,13 +6534,13 @@
         <v>202</v>
       </c>
       <c r="D108" t="n">
-        <v>5.08</v>
+        <v>4.66</v>
       </c>
       <c r="E108" t="n">
-        <v>4.52</v>
+        <v>3.61</v>
       </c>
       <c r="F108" t="n">
-        <v>3.86</v>
+        <v>2.38</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -6552,16 +6552,16 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>3.53</v>
+        <v>2.96</v>
       </c>
       <c r="K108" t="n">
-        <v>2.78</v>
+        <v>1.84</v>
       </c>
       <c r="L108" t="n">
-        <v>2.09</v>
+        <v>0.94</v>
       </c>
       <c r="M108" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>203</v>
       </c>
       <c r="D109" t="n">
-        <v>5.18</v>
+        <v>4.93</v>
       </c>
       <c r="E109" t="n">
-        <v>4.66</v>
+        <v>4.11</v>
       </c>
       <c r="F109" t="n">
-        <v>4.06</v>
+        <v>3.17</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -6599,13 +6599,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>6.15</v>
+        <v>5.45</v>
       </c>
       <c r="K109" t="n">
-        <v>4.94</v>
+        <v>3.45</v>
       </c>
       <c r="L109" t="n">
-        <v>3.54</v>
+        <v>1.74</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -6628,13 +6628,13 @@
         <v>204</v>
       </c>
       <c r="D110" t="n">
-        <v>4.47</v>
+        <v>4.17</v>
       </c>
       <c r="E110" t="n">
-        <v>3.83</v>
+        <v>3.18</v>
       </c>
       <c r="F110" t="n">
-        <v>3.08</v>
+        <v>2.08</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -6646,16 +6646,16 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="K110" t="n">
-        <v>1.54</v>
+        <v>0.88</v>
       </c>
       <c r="L110" t="n">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="M110" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -6675,13 +6675,13 @@
         <v>205</v>
       </c>
       <c r="D111" t="n">
-        <v>5.37</v>
+        <v>5.06</v>
       </c>
       <c r="E111" t="n">
-        <v>4.83</v>
+        <v>4.16</v>
       </c>
       <c r="F111" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -6693,16 +6693,16 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>3.44</v>
+        <v>2.79</v>
       </c>
       <c r="K111" t="n">
-        <v>2.57</v>
+        <v>1.64</v>
       </c>
       <c r="L111" t="n">
-        <v>1.8</v>
+        <v>0.84</v>
       </c>
       <c r="M111" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -6722,13 +6722,13 @@
         <v>206</v>
       </c>
       <c r="D112" t="n">
-        <v>4.63</v>
+        <v>4.3</v>
       </c>
       <c r="E112" t="n">
-        <v>3.9</v>
+        <v>3.19</v>
       </c>
       <c r="F112" t="n">
-        <v>3.05</v>
+        <v>1.95</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6740,16 +6740,16 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.86</v>
+        <v>2.34</v>
       </c>
       <c r="K112" t="n">
-        <v>1.88</v>
+        <v>1.07</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="M112" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
@@ -6769,13 +6769,13 @@
         <v>207</v>
       </c>
       <c r="D113" t="n">
-        <v>4.32</v>
+        <v>4.1</v>
       </c>
       <c r="E113" t="n">
-        <v>3.81</v>
+        <v>3.33</v>
       </c>
       <c r="F113" t="n">
-        <v>3.21</v>
+        <v>2.44</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6787,16 +6787,16 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="K113" t="n">
-        <v>3.78</v>
+        <v>3.12</v>
       </c>
       <c r="L113" t="n">
-        <v>3.02</v>
+        <v>2.1</v>
       </c>
       <c r="M113" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -6816,31 +6816,31 @@
         <v>208</v>
       </c>
       <c r="D114" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
         <v>5.36</v>
       </c>
-      <c r="E114" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5.6</v>
-      </c>
       <c r="K114" t="n">
-        <v>5.04</v>
+        <v>4.53</v>
       </c>
       <c r="L114" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
@@ -6863,13 +6863,13 @@
         <v>209</v>
       </c>
       <c r="D115" t="n">
-        <v>4.67</v>
+        <v>4.4</v>
       </c>
       <c r="E115" t="n">
-        <v>4.12</v>
+        <v>3.55</v>
       </c>
       <c r="F115" t="n">
-        <v>3.49</v>
+        <v>2.57</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -6881,16 +6881,16 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="K115" t="n">
-        <v>3.63</v>
+        <v>2.98</v>
       </c>
       <c r="L115" t="n">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="M115" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
@@ -6910,13 +6910,13 @@
         <v>210</v>
       </c>
       <c r="D116" t="n">
-        <v>4.91</v>
+        <v>4.46</v>
       </c>
       <c r="E116" t="n">
-        <v>4.36</v>
+        <v>3.39</v>
       </c>
       <c r="F116" t="n">
-        <v>3.72</v>
+        <v>2.15</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -6928,16 +6928,16 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.98</v>
+        <v>2.2</v>
       </c>
       <c r="K116" t="n">
-        <v>1.99</v>
+        <v>1.22</v>
       </c>
       <c r="L116" t="n">
-        <v>1.39</v>
+        <v>0.6</v>
       </c>
       <c r="M116" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
